--- a/models.xlsx
+++ b/models.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ΜΤΠΤΧ\AIDL_B_02 - Advanced Topics in Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C33DF-1F1C-4032-8FBD-15EC88CFE0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1631C-3EFE-4DDB-AE53-69BFB4DFA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16752" xr2:uid="{236AF632-8DD9-4934-8E71-0C5E8EE714BF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{236AF632-8DD9-4934-8E71-0C5E8EE714BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -87,6 +90,12 @@
   </si>
   <si>
     <t>PLOT</t>
+  </si>
+  <si>
+    <t>hlaptop</t>
+  </si>
+  <si>
+    <t>MACHINE</t>
   </si>
 </sst>
 </file>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -476,7 +485,7 @@
     <col min="8" max="8" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -511,6 +520,9 @@
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -546,19 +558,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="C3" s="2">
         <v>32</v>
       </c>
       <c r="D3" s="2">
-        <v>100000</v>
+        <v>1000000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.01</v>
       </c>
       <c r="F3" s="2">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -566,11 +581,8 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2">
-        <v>498.5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
@@ -578,22 +590,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C4" s="2">
         <v>32</v>
       </c>
       <c r="D4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.01</v>
+        <v>100000</v>
       </c>
       <c r="F4" s="2">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -601,14 +610,51 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
+      <c r="I4" s="2">
+        <v>498.5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K5">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/models.xlsx
+++ b/models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ΜΤΠΤΧ\AIDL_B_02 - Advanced Topics in Deep Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thodorischaros/Documents/MSc/AIDL_B02_AdvancedTopicsInDeepLearning/assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1631C-3EFE-4DDB-AE53-69BFB4DFA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDF1F8-59A2-7145-9F82-566C047767BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{236AF632-8DD9-4934-8E71-0C5E8EE714BF}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16800" xr2:uid="{236AF632-8DD9-4934-8E71-0C5E8EE714BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -467,29 +466,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -556,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -588,71 +587,103 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="C4" s="2">
         <v>32</v>
       </c>
       <c r="D4" s="2">
-        <v>100000</v>
+        <v>1000000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
       </c>
       <c r="F4" s="2">
         <v>150000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2">
-        <v>498.5</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="2">
         <v>32</v>
       </c>
       <c r="D5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>498.5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
         <v>1000000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>0.01</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>200000</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{E86EDFA0-63BC-4B23-B3BD-200B8CB63DA8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K5">
-      <sortCondition ref="A1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K6">
+      <sortCondition ref="A1:A6"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
